--- a/testing/Detalji.xlsx
+++ b/testing/Detalji.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Broj testa</t>
   </si>
@@ -32,18 +32,204 @@
   </si>
   <si>
     <t>Dodana ifRadniDan i potrošnja u prijašnjem satu</t>
+  </si>
+  <si>
+    <t>greska: nema locka na random i kriva velicina populacije</t>
+  </si>
+  <si>
+    <t>4.mutacija</t>
+  </si>
+  <si>
+    <t>5. velPop</t>
+  </si>
+  <si>
+    <t>Zaključak</t>
+  </si>
+  <si>
+    <t>velPop = 500</t>
+  </si>
+  <si>
+    <t>6.generacijski</t>
+  </si>
+  <si>
+    <t>7.novi eliminacijski</t>
+  </si>
+  <si>
+    <t>kod kreiranja nove jedinke se uvijek odabire samo jedan operator, sa razl vjerojatnostima križanja</t>
+  </si>
+  <si>
+    <t>crxFac = 0.9</t>
+  </si>
+  <si>
+    <t>8. noviGeneracijski</t>
+  </si>
+  <si>
+    <t>generacijski algoritam sa jednim operatorom, velPop = 500</t>
+  </si>
+  <si>
+    <t>generacijski algoritam sa dva operatora</t>
+  </si>
+  <si>
+    <t>9.odabirAlgoritma</t>
+  </si>
+  <si>
+    <t>crxFac = 0.5</t>
+  </si>
+  <si>
+    <t>crxFac = 0.95</t>
+  </si>
+  <si>
+    <t>10.drugoKrizanje</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Algoritam</t>
+  </si>
+  <si>
+    <t>Eliminacijski2</t>
+  </si>
+  <si>
+    <t>Generacijski1</t>
+  </si>
+  <si>
+    <t>Generacijski2</t>
+  </si>
+  <si>
+    <t>Eliminacijski1</t>
+  </si>
+  <si>
+    <t>sva 4</t>
+  </si>
+  <si>
+    <t>sva 4, sa najboljim vrijednostima iz prijasnjih mjerenja (5,6,7,8)</t>
+  </si>
+  <si>
+    <t>eliminacijski2(iz 5)</t>
+  </si>
+  <si>
+    <t>Krizanje</t>
+  </si>
+  <si>
+    <t>OnePoint</t>
+  </si>
+  <si>
+    <t>Uniform</t>
+  </si>
+  <si>
+    <t>uniform crossover, - ne treba vjerojatnost krizanja</t>
+  </si>
+  <si>
+    <t>11.drugaMutacija</t>
+  </si>
+  <si>
+    <t>hoist -&gt; mutacija stabla a ne cvora</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Mutacija</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Point 0.01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">greska: </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>krivo napravljen steady state tournament</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>? -&gt; nije! Ne treba vjerojatnost krizanja</t>
+    </r>
+  </si>
+  <si>
+    <t>nema razlike da li je mutacija cvora ili stabla, samo ne smiju imati iste vrijednosti za vjerojatnost mutacije. Mutacija stabla ne provodi mutaciju konstatne, cak i da je ukljucena.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoist </t>
+  </si>
+  <si>
+    <t>10.velicinaTurnira</t>
+  </si>
+  <si>
+    <t>range(3,8), popravljen odabir kod turnira (do sada nije utjecalo jer je k = 3)</t>
+  </si>
+  <si>
+    <t>nema ga</t>
+  </si>
+  <si>
+    <t>12.prva mutacija</t>
+  </si>
+  <si>
+    <t>point -&gt; mutacija cvora</t>
+  </si>
+  <si>
+    <t>13.odabir mutacije</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Point (manja srednja greska)</t>
+  </si>
+  <si>
+    <t>mutFact = 0.01</t>
+  </si>
+  <si>
+    <t>nije bitno :)</t>
+  </si>
+  <si>
+    <t>point/hoist za sve faktore mutacija</t>
+  </si>
+  <si>
+    <t>14.mape</t>
+  </si>
+  <si>
+    <t>pokretanje algoritma sa mape, jer je uobičajeno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,8 +253,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -87,11 +276,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="Broj testa"/>
     <tableColumn id="2" name="Napomena"/>
+    <tableColumn id="4" name="Algoritam"/>
+    <tableColumn id="5" name="Krizanje"/>
+    <tableColumn id="6" name="Mutacija"/>
+    <tableColumn id="3" name="Zaključak"/>
+    <tableColumn id="7" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -384,27 +578,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="159.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -412,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -420,7 +634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -428,18 +642,253 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/testing/Detalji.xlsx
+++ b/testing/Detalji.xlsx
@@ -79,9 +79,6 @@
     <t>crxFac = 0.95</t>
   </si>
   <si>
-    <t>10.drugoKrizanje</t>
-  </si>
-  <si>
     <t>Column1</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>uniform crossover, - ne treba vjerojatnost krizanja</t>
-  </si>
-  <si>
-    <t>11.drugaMutacija</t>
   </si>
   <si>
     <t>hoist -&gt; mutacija stabla a ne cvora</t>
@@ -181,15 +175,9 @@
     <t>nema ga</t>
   </si>
   <si>
-    <t>12.prva mutacija</t>
-  </si>
-  <si>
     <t>point -&gt; mutacija cvora</t>
   </si>
   <si>
-    <t>13.odabir mutacije</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -205,10 +193,22 @@
     <t>point/hoist za sve faktore mutacija</t>
   </si>
   <si>
-    <t>14.mape</t>
-  </si>
-  <si>
     <t>pokretanje algoritma sa mape, jer je uobičajeno</t>
+  </si>
+  <si>
+    <t>11.drugoKrizanje</t>
+  </si>
+  <si>
+    <t>12.drugaMutacija</t>
+  </si>
+  <si>
+    <t>13.prva mutacija</t>
+  </si>
+  <si>
+    <t>14.odabir mutacije</t>
+  </si>
+  <si>
+    <t>15.mape</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,19 +603,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -650,13 +650,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,16 +681,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
@@ -704,13 +704,13 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
         <v>19</v>
@@ -724,13 +724,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -744,13 +744,13 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -761,127 +761,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/testing/Detalji.xlsx
+++ b/testing/Detalji.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
   <si>
     <t>Broj testa</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>15.mape</t>
+  </si>
+  <si>
+    <t>min max</t>
+  </si>
+  <si>
+    <t>popravljena dva buga koji rezultiraju boljim rezultatima</t>
   </si>
 </sst>
 </file>
@@ -276,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G17" totalsRowShown="0">
-  <autoFilter ref="A1:G17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G21" totalsRowShown="0">
+  <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Broj testa"/>
     <tableColumn id="2" name="Napomena"/>
@@ -578,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +890,32 @@
         <v>51</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
